--- a/reports/hours_11-2025.xlsx
+++ b/reports/hours_11-2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,17 +807,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>גבעת שמואל</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>הערות לנספחים</t>
+          <t>שיחה עמרי לענין חוב במפרט</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -826,29 +826,29 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4.11.2025</t>
+          <t>2.11.2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>גבעת שמואל</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ישיבה אצל עמרי במרחב + זום פנימי</t>
+          <t>הערות לנספחים</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>רמת רחל</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>זום פנימי</t>
+          <t>ישיבה אצל עמרי במרחב + זום פנימי</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>רמת רחל</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>שיחה פנימית</t>
+          <t>זום פנימי</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>השגה משפטית תוספות ותיקונים</t>
+          <t>שיחה פנימית</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>מבשרת</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>התנגדות לבקשה להיתר</t>
+          <t>השגה משפטית תוספות ותיקונים</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -993,17 +993,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>מיכאלאנג'לו</t>
+          <t>מבשרת</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>מייל לאורי פוגל לענין הליקויים</t>
+          <t>התנגדות לבקשה להיתר</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>מיכאלאנג'לו</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י לצורך העברת זכויות (עץ החזקות ואישורי כשרות)</t>
+          <t>מייל לאורי פוגל לענין הליקויים</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>גבעת עוז</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>מסמכים לפתיחת תאגיד</t>
+          <t>מסמכים לרמ"י לצורך העברת זכויות (עץ החזקות ואישורי כשרות)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1086,17 +1086,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>עמל 10</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>פינוי בינוי</t>
+          <t>גבעת עוז</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>טיוטת הסכם הערות</t>
+          <t>מסמכים לפתיחת תאגיד</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1105,29 +1105,29 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5.11.2025</t>
+          <t>4.11.2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>עמל 10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>פינוי בינוי</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>מסמכים לעיריה לענין השלמת הליך השבת הקרקע</t>
+          <t>טיוטת הסכם הערות</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1148,17 +1148,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>תצהיר ומסמכים לרמ"י להעברת זכויות</t>
+          <t>מסמכים לעיריה לענין השלמת הליך השבת הקרקע</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>פנימית לענין השבת קרקע</t>
+          <t>תצהיר ומסמכים לרמ"י להעברת זכויות</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1210,17 +1210,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>מוצא</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>רישום משכנתא</t>
+          <t>פנימית לענין השבת קרקע</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>חכירה</t>
+          <t>מוצא</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ישיבה ברמ"י ירושלים</t>
+          <t>רישום משכנתא</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1272,12 +1272,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>מבוא חורון</t>
+          <t>חכירה</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>מבוא חורון</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לצורך קידום השגה משפטית</t>
+          <t>ישיבה ברמ"י ירושלים</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>שיחה בני והתייחסות לשמאות נגדית</t>
+          <t>רמ"י ירושלים לצורך קידום השגה משפטית</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>שיחה לימור</t>
+          <t>שיחה בני והתייחסות לשמאות נגדית</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>שוטף בענין בנק הפועלים</t>
+          <t>שיחה לימור</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>בדיקת הסכם שיתוף סנטר</t>
+          <t>שוטף בענין בנק הפועלים</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1458,17 +1458,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ג'י סיטי</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>טיוטות מתוקנות לדנה + שיחה עידן</t>
+          <t>בדיקת הסכם שיתוף סנטר</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1489,17 +1489,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>קרית שמונה</t>
+          <t>ג'י סיטי</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>חידוש הבקשה לתיקון שטח חוזה</t>
+          <t>טיוטות מתוקנות לדנה + שיחה עידן</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1520,17 +1520,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>אנה פרנק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>קרית שמונה</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>טיפול ברישום דירות</t>
+          <t>חידוש הבקשה לתיקון שטח חוזה</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1546,22 +1546,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6.11.2025</t>
+          <t>5.11.2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>אנה פרנק</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>רמת רחל</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>שיחת עורכי דין + תיקון טיוטות</t>
+          <t>טיפול ברישום דירות</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>שלום עליכם</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>תמ"א 38</t>
+          <t>רמת רחל</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>שיחת עורכי דין + תיקון טיוטות</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="inlineStr"/>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>שלום עליכם</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>תמ"א 38</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>תצהיר מלימור + שיחה</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr"/>
     </row>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>מכתב סטטוס תביעות</t>
+          <t>תצהיר מלימור + שיחה</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1675,17 +1675,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>תוספת בנק הפועלים לענין החלפת שטחים</t>
+          <t>מכתב סטטוס תביעות</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G41" t="inlineStr"/>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>שוטף + מסמכים למיזוג</t>
+          <t>תוספת בנק הפועלים לענין החלפת שטחים</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr"/>
     </row>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>פי גלילות</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>מכתב לרמ"י לאחר החלטה בהשגה וריכוז לדלק + בדיקת החלטה בהשגה</t>
+          <t>שוטף + מסמכים למיזוג</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr"/>
     </row>
@@ -1768,17 +1768,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>הסכם מכירה</t>
+          <t>פי גלילות</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>מאסטר</t>
+          <t>מכתב לרמ"י לאחר החלטה בהשגה וריכוז לדלק + בדיקת החלטה בהשגה</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1799,17 +1799,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>הסכם מכירה</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>טיפול בתוספת להסכם</t>
+          <t>מאסטר</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G45" t="inlineStr"/>
     </row>
@@ -1830,17 +1830,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ש.ב.ה</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>עומר</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>תוספת להסכם שכירות וואן (תיבי)</t>
+          <t>טיפול בתוספת להסכם</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G46" t="inlineStr"/>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>ש.ב.ה</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>מבשרת</t>
+          <t>עומר</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>תיקונים לטיוטת הסכם</t>
+          <t>תוספת להסכם שכירות וואן (תיבי)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1880,14 +1880,14 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
+          <t>6.11.2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>תיקונים לתקנון בית משותף</t>
+          <t>תיקונים לטיוטת הסכם</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>כפיר דהן</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>קצרין</t>
+          <t>מבשרת</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>טיפול ברישום זכויות</t>
+          <t>תיקונים לתקנון בית משותף</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G49" t="inlineStr"/>
     </row>
@@ -1954,17 +1954,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>כפיר דהן</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>קצרין</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>שיחה בני והכנת ניירות עבודה להשגה</t>
+          <t>טיפול ברישום זכויות</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1973,29 +1973,29 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08.11.2025</t>
+          <t>06.11.2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>פארק קורן</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>סיכומים בתביעת היטלים</t>
+          <t>שיחה בני והכנת ניירות עבודה להשגה</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>08.11.2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>רישום חכירה</t>
+          <t>פארק קורן</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>שיחת זום עדכון</t>
+          <t>סיכומים בתביעת היטלים</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="inlineStr"/>
     </row>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>לוד צפון</t>
+          <t>רישום חכירה</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>שיחות בענין מייצג חסונה</t>
+          <t>שיחת זום עדכון</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2078,17 +2078,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>לוד צפון</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>טיפול בתוספת להסכם רומנו + מסמכי ליווי</t>
+          <t>שיחות בענין מייצג חסונה</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G54" t="inlineStr"/>
     </row>
@@ -2109,17 +2109,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>בדיקות לצורך ארכה להגשת השגה משפטית</t>
+          <t>טיפול בתוספת להסכם רומנו + מסמכי ליווי</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr"/>
     </row>
@@ -2140,17 +2140,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ש.ב.א</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>תביעה רמ"י</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>בדיקות לענין חוות דעת</t>
+          <t>בדיקות לצורך ארכה להגשת השגה משפטית</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr"/>
     </row>
@@ -2171,17 +2171,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>רוכברגר מרטין</t>
+          <t>ש.ב.א</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>תביעה רמ"י</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>מסמכים לרישום זכויות</t>
+          <t>בדיקות לענין חוות דעת</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
@@ -2202,17 +2202,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>רוכברגר מרטין</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>תחנת שורק</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>הכנה לדיון שמאית מכריעה</t>
+          <t>מסמכים לרישום זכויות</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2221,14 +2221,14 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>הכנה לדיון שמאית מכריעה ושיחות דרור</t>
+          <t>הכנה לדיון שמאית מכריעה</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="G59" t="inlineStr"/>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>פי גלילות</t>
+          <t>תחנת שורק</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>בדיקת החלטת ועדת השגות + שיחה ארז ודרור להתכנות עתירה</t>
+          <t>הכנה לדיון שמאית מכריעה ושיחות דרור</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>פי גלילות</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>טיפול בהארכת הסכם החלפת שטחים</t>
+          <t>בדיקת החלטת ועדת השגות + שיחה ארז ודרור להתכנות עתירה</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G61" t="inlineStr"/>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>טיוטת השגה משפטית</t>
+          <t>טיפול בהארכת הסכם החלפת שטחים</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2357,17 +2357,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>רחלה לענין מסמכים להקניית בעלות</t>
+          <t>טיוטת השגה משפטית</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2388,17 +2388,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>סיגת</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>התכתבות שאול לענין מודד</t>
+          <t>רחלה לענין מסמכים להקניית בעלות</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr"/>
     </row>
@@ -2419,17 +2419,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>סיגת</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>יזרעאל</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>שיחה תום</t>
+          <t>התכתבות שאול לענין מודד</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="inlineStr"/>
     </row>
@@ -2450,17 +2450,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>יזרעאל</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>טיפול בדרישת היטלים</t>
+          <t>שיחה תום</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G66" t="inlineStr"/>
     </row>
@@ -2481,17 +2481,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>מבוא בית"ר</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>שיחה אבישי ובדיקת תב"ע + הגשת בקשה להיתר מחדש</t>
+          <t>טיפול בדרישת היטלים</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="G67" t="inlineStr"/>
     </row>
@@ -2512,17 +2512,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>מבוא בית"ר</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>הערכות לפינוי</t>
+          <t>שיחה אבישי ובדיקת תב"ע + הגשת בקשה להיתר מחדש</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="G68" t="inlineStr"/>
     </row>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>טיוטת דיווח מס שבח</t>
+          <t>הערכות לפינוי</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G69" t="inlineStr"/>
     </row>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>סיכומים והגשה</t>
+          <t>טיוטת דיווח מס שבח</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2605,17 +2605,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י להעברת זכויות</t>
+          <t>סיכומים והגשה</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2631,22 +2631,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>שיחה אשרת</t>
+          <t>מסמכים לרמ"י להעברת זכויות</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr"/>
     </row>
@@ -2667,17 +2667,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>התכתבות רמ"י</t>
+          <t>שיחה אשרת</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2698,17 +2698,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>בית בלב</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>טיוטת הסכם לנדיר</t>
+          <t>התכתבות רמ"י</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G74" t="inlineStr"/>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>קרית שמונה</t>
+          <t>בית בלב</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>מסמכים להקניית בעלות</t>
+          <t>טיוטת הסכם לנדיר</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G75" t="inlineStr"/>
     </row>
@@ -2760,17 +2760,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>כפיר דהן</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>קצרין</t>
+          <t>קרית שמונה</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>שיחות מסמ"ק לענין שומות עצמיות</t>
+          <t>מסמכים להקניית בעלות</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G76" t="inlineStr"/>
     </row>
@@ -2791,17 +2791,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>כפיר דהן</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>כללי</t>
+          <t>קצרין</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>בדיקות היתרי בניה + פנימית אמיר</t>
+          <t>שיחות מסמ"ק לענין שומות עצמיות</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2822,17 +2822,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>שמעון הצדיק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>רוכשים</t>
+          <t>כללי</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>בדיקות היתרי בניה + פנימית אמיר</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2841,29 +2841,29 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>שמעון הצדיק</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>חפציבה</t>
+          <t>רוכשים</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>רמ"י נצרת לענין הגשת בקשה להיתר בניה</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="G79" t="inlineStr"/>
     </row>
@@ -2884,17 +2884,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ש.ב.ה</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>נקסט עומר</t>
+          <t>חפציבה</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>שיחה זום + לינדה בענין העברת זכויות</t>
+          <t>רמ"י נצרת לענין הגשת בקשה להיתר בניה</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G80" t="inlineStr"/>
     </row>
@@ -2915,17 +2915,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>כפיר פרקש</t>
+          <t>ש.ב.ה</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>נתיבות</t>
+          <t>נקסט עומר</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>שיחה רונן + כפיר</t>
+          <t>שיחה זום + לינדה בענין העברת זכויות</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>כפיר פרקש</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>משאבי שדה</t>
+          <t>נתיבות</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>שיחת הכנה לשיחה בענין ביטול הסכם</t>
+          <t>שיחה רונן + כפיר</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr"/>
     </row>
@@ -2982,12 +2982,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>משאבי שדה</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>רמ"י צפון לענין העברת הזכויות</t>
+          <t>שיחת הכנה לשיחה בענין ביטול הסכם</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G83" t="inlineStr"/>
     </row>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>טיפול בהארכת הסכם החלפת שטחים ושיחות מורן , ריכוז נכסים משותפים</t>
+          <t>רמ"י צפון לענין העברת הזכויות</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>טיוטת הסכם</t>
+          <t>טיפול בהארכת הסכם החלפת שטחים ושיחות מורן , ריכוז נכסים משותפים</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
@@ -3070,17 +3070,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>יואל רונן</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>המעין</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>מכתב מענה מיכאל בן אימרה</t>
+          <t>טיוטת הסכם</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G86" t="inlineStr"/>
     </row>
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>יואל רונן</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>המעין</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>שיחות עמרי ומפרט כספי</t>
+          <t>מכתב מענה מיכאל בן אימרה</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr"/>
     </row>
@@ -3132,17 +3132,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>טיוטת הסכם תיקונים</t>
+          <t>שיחות עמרי ומפרט כספי</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3151,29 +3151,29 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ליווי בנקאי זום ליעד</t>
+          <t>טיוטת הסכם תיקונים</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr"/>
     </row>
@@ -3194,17 +3194,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>מכירת מניות</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>דיונים מסמ"ק וסגירת שומות</t>
+          <t>ליווי בנקאי זום ליעד</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3225,17 +3225,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>מכירת מניות</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>החלפת שטחים , שיחות מורן</t>
+          <t>דיונים מסמ"ק וסגירת שומות</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G91" t="inlineStr"/>
     </row>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>טיפול מול העיריה</t>
+          <t>החלפת שטחים , שיחות מורן</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr"/>
     </row>
@@ -3292,12 +3292,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>מכון טיהור</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>טיוטת מייל לעיריה ובדיקת מסמכים ישנים</t>
+          <t>טיפול מול העיריה</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G93" t="inlineStr"/>
     </row>
@@ -3318,17 +3318,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>מכון טיהור</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>נספחים להסכם הקמה ותיקון טיוטות</t>
+          <t>טיוטת מייל לעיריה ובדיקת מסמכים ישנים</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G94" t="inlineStr"/>
     </row>
@@ -3349,17 +3349,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ודרישת תשלום</t>
+          <t>נספחים להסכם הקמה ותיקון טיוטות</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G95" t="inlineStr"/>
     </row>
@@ -3380,17 +3380,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ליווי בנקאי</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>נספח שינויים להסכם ליווי</t>
+          <t>בדיקת חוקי עזר ודרישת תשלום</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3399,29 +3399,29 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>15.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>ליווי בנקאי</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>תיקון מסמכים מול בועז</t>
+          <t>נספח שינויים להסכם ליווי</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3437,22 +3437,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>15.11.2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>כפיר פרקש</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>נתיבות</t>
+          <t>מבשרת ציון</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ישיבת תיאום תמ"ל 2027 והכנה</t>
+          <t>תיקון מסמכים מול בועז</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="G98" t="inlineStr"/>
     </row>
@@ -3473,17 +3473,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>כפיר פרקש</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>עין כרמל</t>
+          <t>נתיבות</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>זום</t>
+          <t>ישיבת תיאום תמ"ל 2027 והכנה</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G99" t="inlineStr"/>
     </row>
@@ -3504,17 +3504,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>משאבי שקה</t>
+          <t>עין כרמל</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>זום בענין ביטול הסכם</t>
+          <t>זום</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
     </row>
@@ -3535,17 +3535,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>משאבי שקה</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>זום בענין ביטול הסכם</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="inlineStr"/>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ריכוז סעיפים לצדדים ושיחה פנימית</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="inlineStr"/>
     </row>
@@ -3597,17 +3597,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>שמעון הצדיק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>רוכשים</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>רישום בטאבו</t>
+          <t>ריכוז סעיפים לצדדים ושיחה פנימית</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3616,29 +3616,29 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>שמעון הצדיק</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>עין כרמל</t>
+          <t>רוכשים</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>רישום בטאבו</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>בית בלב</t>
+          <t>עין כרמל</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>פגישה אצל ב"כ בית בלב</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr"/>
     </row>
@@ -3690,17 +3690,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>מגידו</t>
+          <t>בית בלב</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>רמ"י צפון לענין השלמת העברת זכויות</t>
+          <t>פגישה אצל ב"כ בית בלב</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G106" t="inlineStr"/>
     </row>
@@ -3721,17 +3721,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>מגידו</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>בדיקות מול הועדה ובדיקת תצאות</t>
+          <t>רמ"י צפון לענין השלמת העברת זכויות</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G107" t="inlineStr"/>
     </row>
@@ -3752,17 +3752,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>רמ"י צפון השלמת העברת זכויות</t>
+          <t>בדיקות מול הועדה ובדיקת תצאות</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3771,29 +3771,29 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>עקיבא איגר</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>היטל השבחה</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>דיון בועדת ערר  והכנה</t>
+          <t>רמ"י צפון השלמת העברת זכויות</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G109" t="inlineStr"/>
     </row>
@@ -3814,17 +3814,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>עקיבא איגר</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>היטל השבחה</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לקידום התיק</t>
+          <t>דיון בועדת ערר  והכנה</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G110" t="inlineStr"/>
     </row>
@@ -3845,17 +3845,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לקידום השגה משפטית</t>
+          <t>רמ"י ירושלים לקידום התיק</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>דרישת מסמכים זבולון</t>
+          <t>רמ"י ירושלים לקידום השגה משפטית</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="inlineStr"/>
     </row>
@@ -3912,12 +3912,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>שיחות עו"ד בענין הצורך בהודעת מיזוג</t>
+          <t>דרישת מסמכים זבולון</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr"/>
     </row>
@@ -3938,17 +3938,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ומסמכים</t>
+          <t>שיחות עו"ד בענין הצורך בהודעת מיזוג</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3964,22 +3964,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>גוהר</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>אנילביץ</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>שיחת זום בענין ערעור מסמ"ק</t>
+          <t>בדיקת חוקי עזר ומסמכים</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4000,17 +4000,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>גוהר</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>אנילביץ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>בדיקת היתרים קודמים</t>
+          <t>שיחת זום בענין ערעור מסמ"ק</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4026,22 +4026,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>20.11.2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>העמל 10</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>פינוי בינוי</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ישיבה במשרד הסכם פינוי בינוי</t>
+          <t>בדיקת היתרים קודמים</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G117" t="inlineStr"/>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>מתחם השעון</t>
+          <t>העמל 10</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>שותפים</t>
+          <t>פינוי בינוי</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ישיבת זום</t>
+          <t>ישיבה במשרד הסכם פינוי בינוי</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="G118" t="inlineStr"/>
     </row>
@@ -4093,17 +4093,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>מתחם השעון</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>מיכאל אנג'לו</t>
+          <t>שותפים</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>תביעת ליקויי בניה</t>
+          <t>ישיבת זום</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="G119" t="inlineStr"/>
     </row>
@@ -4124,17 +4124,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ההשגה משפטית</t>
+          <t>מיכאל אנג'לו</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>בדיקות לענין תשלומים קודמים ששולמו וטיוטת השגה משפטית</t>
+          <t>תביעת ליקויי בניה</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G120" t="inlineStr"/>
     </row>
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>ההשגה משפטית</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>נקודות לפגישת עו"ד עיריה</t>
+          <t>בדיקות לענין תשלומים קודמים ששולמו וטיוטת השגה משפטית</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G121" t="inlineStr"/>
     </row>
@@ -4186,17 +4186,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>אלנבי</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>מכתב התראה ישראל קנדה ונתון</t>
+          <t>נקודות לפגישת עו"ד עיריה</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr"/>
     </row>
@@ -4217,17 +4217,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>יואל רונן</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ריינס</t>
+          <t>אלנבי</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>העברות להסכמי בנק מלווה</t>
+          <t>מכתב התראה ישראל קנדה ונתון</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G123" t="inlineStr"/>
     </row>
@@ -4248,17 +4248,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>יואל רונן</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>היטלים מטמנה</t>
+          <t>ריינס</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>דרישת מסמכים זבולון</t>
+          <t>העברות להסכמי בנק מלווה</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4267,29 +4267,29 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>24.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>היטלים מטמנה</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>זום פנימי + ישיבה בגב ים + תיקון טיוטא</t>
+          <t>דרישת מסמכים זבולון</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr"/>
     </row>
@@ -4310,17 +4310,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>רמ"י מרכז עמרי לקידום העסקה + בדיקת חשבוניות ששולמו</t>
+          <t>זום פנימי + ישיבה בגב ים + תיקון טיוטא</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ובדיקות לענין היטלים</t>
+          <t>רמ"י מרכז עמרי לקידום העסקה + בדיקת חשבוניות ששולמו</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י להעברת הזכויות</t>
+          <t>בדיקת חוקי עזר ובדיקות לענין היטלים</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4391,29 +4391,29 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>24.11.2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>קנה מטאל</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>מסמכים לרמ"י להעברת הזכויות</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G129" t="inlineStr"/>
     </row>
@@ -4434,17 +4434,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>היטלים מטמנה</t>
+          <t>קנה מטאל</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>שיחת זום יאיר</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4465,17 +4465,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>לוד צפון</t>
+          <t>היטלים מטמנה</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>שיחת זום יאיר</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G131" t="inlineStr"/>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>לוד צפון</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>שיחת ועידה</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>אושירה</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>שדרות רגר</t>
+          <t>מבשרת ציון</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>הסכם פריסה</t>
+          <t>שיחת ועידה</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4558,17 +4558,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>אושירה</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ג'י סיטי</t>
+          <t>שדרות רגר</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>גבי סכנין בענין ביטוחים</t>
+          <t>הסכם פריסה</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G134" t="inlineStr"/>
     </row>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>ג'י סיטי</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ריכוז מסמכים ומייל לדניאל</t>
+          <t>גבי סכנין בענין ביטוחים</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4608,7 +4608,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
@@ -4620,17 +4620,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>טיפול במסמכים מול אלקטרה</t>
+          <t>ריכוז מסמכים ומייל לדניאל</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
@@ -4651,17 +4651,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>טיפול בהסכם ליווי</t>
+          <t>טיפול במסמכים מול אלקטרה</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>בר סימן טוב</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>הסכם שכירות</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>טיפול בהסכמים שכירות דירות שונות</t>
+          <t>טיפול בהסכם ליווי</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4708,22 +4708,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>29.11.2025</t>
+          <t>27.11.2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>בר סימן טוב</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>קנה מטאל</t>
+          <t>הסכם שכירות</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>טיוטת הסכם</t>
+          <t>טיפול בהסכמים שכירות דירות שונות</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4732,29 +4732,29 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>29.11.2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>השגה משפטית</t>
+          <t>קנה מטאל</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>טיוטת השגה</t>
+          <t>טיוטת הסכם</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G140" t="inlineStr"/>
     </row>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>השגה משפטית</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>תיקון טיוטא ושיחות פנימיות</t>
+          <t>טיוטת השגה</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4806,17 +4806,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>קן דרור</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>מכירה חוף התכלת</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>תיקונים לטיוטת הסכם</t>
+          <t>תיקון טיוטא ושיחות פנימיות</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G142" t="inlineStr"/>
     </row>
@@ -4837,17 +4837,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>משרד</t>
+          <t>קן דרור</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>כללי</t>
+          <t>מכירה חוף התכלת</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>טיפול בהעברת דירה לפרטי</t>
+          <t>תיקונים לטיוטת הסכם</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143" t="inlineStr"/>
     </row>
@@ -4868,28 +4868,59 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>משרד</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>כללי</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>טיפול בהעברת דירה לפרטי</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>דלק</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>קרית חיים</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>מסמכים להעברת זכויות</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>גלית</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>1</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/hours_11-2025.xlsx
+++ b/reports/hours_11-2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,22 +864,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4.11.2025</t>
+          <t>3.11.2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ישיבה אצל עמרי במרחב + זום פנימי</t>
+          <t>פגישה ברמ"י (לימור + גלי)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -888,60 +888,60 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4.11.2025</t>
+          <t>3.11.2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>רמת רחל</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>זום פנימי</t>
+          <t>פגישה ברמ"י</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>גלית</t>
+          <t>הוצאות</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4.11.2025</t>
+          <t>3.11.2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>שיחה פנימית</t>
+          <t>שיחת ועידה + תיקון טיוטא</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -950,29 +950,29 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4.11.2025</t>
+          <t>3.11.2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>משרד</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>כללי</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>השגה משפטית תוספות ותיקונים</t>
+          <t>תלפיות קבלת משרדים</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -993,17 +993,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>מבשרת</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>התנגדות לבקשה להיתר</t>
+          <t>ישיבה אצל עמרי במרחב + זום פנימי</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>מיכאלאנג'לו</t>
+          <t>רמת רחל</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>מייל לאורי פוגל לענין הליקויים</t>
+          <t>זום פנימי</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י לצורך העברת זכויות (עץ החזקות ואישורי כשרות)</t>
+          <t>שיחה פנימית</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1086,17 +1086,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>גבעת עוז</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>מסמכים לפתיחת תאגיד</t>
+          <t>השגה משפטית תוספות ותיקונים</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>עמל 10</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>פינוי בינוי</t>
+          <t>מבשרת</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>טיוטת הסכם הערות</t>
+          <t>התנגדות לבקשה להיתר</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1143,22 +1143,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5.11.2025</t>
+          <t>4.11.2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>מיכאלאנג'לו</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>מסמכים לעיריה לענין השלמת הליך השבת הקרקע</t>
+          <t>מייל לאורי פוגל לענין הליקויים</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1167,14 +1167,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5.11.2025</t>
+          <t>4.11.2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>תצהיר ומסמכים לרמ"י להעברת זכויות</t>
+          <t>מסמכים לרמ"י לצורך העברת זכויות (עץ החזקות ואישורי כשרות)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1198,29 +1198,29 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5.11.2025</t>
+          <t>4.11.2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>גבעת עוז</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>פנימית לענין השבת קרקע</t>
+          <t>מסמכים לפתיחת תאגיד</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1236,22 +1236,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5.11.2025</t>
+          <t>4.11.2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>עמל 10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>מוצא</t>
+          <t>פינוי בינוי</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>רישום משכנתא</t>
+          <t>טיוטת הסכם הערות</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1272,17 +1272,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>חכירה</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ישיבה ברמ"י ירושלים</t>
+          <t>מסמכים לעיריה לענין השלמת הליך השבת הקרקע</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>מבוא חורון</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ישיבה ברמ"י ירושלים</t>
+          <t>תצהיר ומסמכים לרמ"י להעברת זכויות</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לצורך קידום השגה משפטית</t>
+          <t>פנימית לענין השבת קרקע</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>מוצא</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>שיחה בני והתייחסות לשמאות נגדית</t>
+          <t>רישום משכנתא</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>חכירה</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>שיחה לימור</t>
+          <t>ישיבה ברמ"י ירושלים</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>מבוא חורון</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>שוטף בענין בנק הפועלים</t>
+          <t>ישיבה ברמ"י ירושלים</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1458,17 +1458,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>בדיקת הסכם שיתוף סנטר</t>
+          <t>רמ"י ירושלים לצורך קידום השגה משפטית</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1489,17 +1489,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ג'י סיטי</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>טיוטות מתוקנות לדנה + שיחה עידן</t>
+          <t>שיחה בני והתייחסות לשמאות נגדית</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1520,17 +1520,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>קרית שמונה</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>חידוש הבקשה לתיקון שטח חוזה</t>
+          <t>שיחה לימור</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G36" t="inlineStr"/>
     </row>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>אנה פרנק</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>טיפול ברישום דירות</t>
+          <t>שוטף בענין בנק הפועלים</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1570,29 +1570,29 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6.11.2025</t>
+          <t>5.11.2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>רמת רחל</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>שיחת עורכי דין + תיקון טיוטות</t>
+          <t>בדיקת הסכם שיתוף סנטר</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1601,29 +1601,29 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6.11.2025</t>
+          <t>5.11.2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>שלום עליכם</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>תמ"א 38</t>
+          <t>ג'י סיטי</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>טיוטות מתוקנות לדנה + שיחה עידן</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1632,29 +1632,29 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6.11.2025</t>
+          <t>5.11.2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>קרית שמונה</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>תצהיר מלימור + שיחה</t>
+          <t>חידוש הבקשה לתיקון שטח חוזה</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1670,22 +1670,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6.11.2025</t>
+          <t>5.11.2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>אנה פרנק</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>מכתב סטטוס תביעות</t>
+          <t>טיפול ברישום דירות</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>רמת רחל</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>תוספת בנק הפועלים לענין החלפת שטחים</t>
+          <t>שיחת עורכי דין + תיקון טיוטות</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G42" t="inlineStr"/>
     </row>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>שלום עליכם</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>תמ"א 38</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>שוטף + מסמכים למיזוג</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr"/>
     </row>
@@ -1768,17 +1768,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>פי גלילות</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>מכתב לרמ"י לאחר החלטה בהשגה וריכוז לדלק + בדיקת החלטה בהשגה</t>
+          <t>תצהיר מלימור + שיחה</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1799,17 +1799,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>הסכם מכירה</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>מאסטר</t>
+          <t>מכתב סטטוס תביעות</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G45" t="inlineStr"/>
     </row>
@@ -1830,17 +1830,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>טיפול בתוספת להסכם</t>
+          <t>תוספת בנק הפועלים לענין החלפת שטחים</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr"/>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ש.ב.ה</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>עומר</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>תוספת להסכם שכירות וואן (תיבי)</t>
+          <t>שוטף + מסמכים למיזוג</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr"/>
     </row>
@@ -1892,17 +1892,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>מבשרת</t>
+          <t>פי גלילות</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>תיקונים לטיוטת הסכם</t>
+          <t>מכתב לרמ"י לאחר החלטה בהשגה וריכוז לדלק + בדיקת החלטה בהשגה</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1911,29 +1911,29 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
+          <t>6.11.2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>מבשרת</t>
+          <t>הסכם מכירה</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>תיקונים לתקנון בית משותף</t>
+          <t>מאסטר</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1942,29 +1942,29 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
+          <t>6.11.2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>כפיר דהן</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>קצרין</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>טיפול ברישום זכויות</t>
+          <t>טיפול בתוספת להסכם</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1973,29 +1973,29 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
+          <t>6.11.2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>ש.ב.ה</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>עומר</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>שיחה בני והכנת ניירות עבודה להשגה</t>
+          <t>תוספת להסכם שכירות וואן (תיבי)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08.11.2025</t>
+          <t>6.11.2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>פארק קורן</t>
+          <t>מבשרת</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>סיכומים בתביעת היטלים</t>
+          <t>תיקונים לטיוטת הסכם</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2035,29 +2035,29 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>06.11.2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>רישום חכירה</t>
+          <t>מבשרת</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>שיחת זום עדכון</t>
+          <t>תיקונים לתקנון בית משותף</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2066,29 +2066,29 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>06.11.2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>כפיר דהן</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>לוד צפון</t>
+          <t>קצרין</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>שיחות בענין מייצג חסונה</t>
+          <t>טיפול ברישום זכויות</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2097,29 +2097,29 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>06.11.2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>טיפול בתוספת להסכם רומנו + מסמכי ליווי</t>
+          <t>שיחה בני והכנת ניירות עבודה להשגה</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2128,29 +2128,29 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>08.11.2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>פארק קורן</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>בדיקות לצורך ארכה להגשת השגה משפטית</t>
+          <t>סיכומים בתביעת היטלים</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2159,29 +2159,29 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09.11.2025</t>
+          <t>8.11.2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ש.ב.א</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>תביעה רמ"י</t>
+          <t>פארק קורן</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>בדיקות לענין חוות דעת</t>
+          <t>סיכומים</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
@@ -2202,17 +2202,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>רוכברגר מרטין</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>רישום חכירה</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>מסמכים לרישום זכויות</t>
+          <t>שיחת זום עדכון</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G58" t="inlineStr"/>
     </row>
@@ -2238,12 +2238,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>תחנת שורק</t>
+          <t>לוד צפון</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>הכנה לדיון שמאית מכריעה</t>
+          <t>שיחות בענין מייצג חסונה</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2252,29 +2252,29 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>תחנת שורק</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>הכנה לדיון שמאית מכריעה ושיחות דרור</t>
+          <t>טיפול בתוספת להסכם רומנו + מסמכי ליווי</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2283,29 +2283,29 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>פי גלילות</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>בדיקת החלטת ועדת השגות + שיחה ארז ודרור להתכנות עתירה</t>
+          <t>בדיקות לצורך ארכה להגשת השגה משפטית</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2314,29 +2314,29 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>ש.ב.א</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>תביעה רמ"י</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>טיפול בהארכת הסכם החלפת שטחים</t>
+          <t>בדיקות לענין חוות דעת</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2345,29 +2345,29 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>רוכברגר מרטין</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>טיוטת השגה משפטית</t>
+          <t>מסמכים לרישום זכויות</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2376,29 +2376,29 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.11.2025</t>
+          <t>09.11.2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>אסתי וייץ</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>הקניית בעלות</t>
+          <t>תחנת שורק</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>רחלה לענין מסמכים להקניית בעלות</t>
+          <t>הכנה לדיון שמאית מכריעה</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G64" t="inlineStr"/>
     </row>
@@ -2419,17 +2419,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>סיגת</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>תחנת שורק</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>התכתבות שאול לענין מודד</t>
+          <t>הכנה לדיון שמאית מכריעה ושיחות דרור</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="inlineStr"/>
     </row>
@@ -2450,17 +2450,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>יזרעאל</t>
+          <t>פי גלילות</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>שיחה תום</t>
+          <t>בדיקת החלטת ועדת השגות + שיחה ארז ודרור להתכנות עתירה</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G66" t="inlineStr"/>
     </row>
@@ -2481,17 +2481,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>טיפול בדרישת היטלים</t>
+          <t>טיפול בהארכת הסכם החלפת שטחים</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr"/>
     </row>
@@ -2512,17 +2512,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>מבוא בית"ר</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>שיחה אבישי ובדיקת תב"ע + הגשת בקשה להיתר מחדש</t>
+          <t>טיוטת השגה משפטית</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr"/>
     </row>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>הערכות לפינוי</t>
+          <t>רחלה לענין מסמכים להקניית בעלות</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr"/>
     </row>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>סיגת</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>טיוטת דיווח מס שבח</t>
+          <t>התכתבות שאול לענין מודד</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G70" t="inlineStr"/>
     </row>
@@ -2605,17 +2605,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>יזרעאל</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>סיכומים והגשה</t>
+          <t>שיחה תום</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G71" t="inlineStr"/>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י להעברת זכויות</t>
+          <t>טיפול בדרישת היטלים</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2655,14 +2655,14 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>מבוא בית"ר</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>שיחה אשרת</t>
+          <t>שיחה אבישי ובדיקת תב"ע + הגשת בקשה להיתר מחדש</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2686,29 +2686,29 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>התכתבות רמ"י</t>
+          <t>הערכות לפינוי</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2717,29 +2717,29 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>בית בלב</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>טיוטת הסכם לנדיר</t>
+          <t>טיוטת דיווח מס שבח</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2748,29 +2748,29 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>קרית שמונה</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>מסמכים להקניית בעלות</t>
+          <t>סיכומים והגשה</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2779,29 +2779,29 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11.11.2025</t>
+          <t>10.11.2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>כפיר דהן</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>קצרין</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>שיחות מסמ"ק לענין שומות עצמיות</t>
+          <t>מסמכים לרמ"י להעברת זכויות</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr"/>
     </row>
@@ -2822,17 +2822,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>כללי</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>בדיקות היתרי בניה + פנימית אמיר</t>
+          <t>שיחה אשרת</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G78" t="inlineStr"/>
     </row>
@@ -2853,17 +2853,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>שמעון הצדיק</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>רוכשים</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>רישום זכויות</t>
+          <t>התכתבות רמ"י</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2872,14 +2872,14 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>חפציבה</t>
+          <t>בית בלב</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>רמ"י נצרת לענין הגשת בקשה להיתר בניה</t>
+          <t>טיוטת הסכם לנדיר</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2903,29 +2903,29 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ש.ב.ה</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>נקסט עומר</t>
+          <t>קרית שמונה</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>שיחה זום + לינדה בענין העברת זכויות</t>
+          <t>מסמכים להקניית בעלות</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2934,29 +2934,29 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>כפיר פרקש</t>
+          <t>כפיר דהן</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>נתיבות</t>
+          <t>קצרין</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>שיחה רונן + כפיר</t>
+          <t>שיחות מסמ"ק לענין שומות עצמיות</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2965,29 +2965,29 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>משאבי שדה</t>
+          <t>כללי</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>שיחת הכנה לשיחה בענין ביטול הסכם</t>
+          <t>בדיקות היתרי בניה + פנימית אמיר</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2996,29 +2996,29 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>12.11.2025</t>
+          <t>11.11.2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>שמעון הצדיק</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>רוכשים</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>רמ"י צפון לענין העברת הזכויות</t>
+          <t>רישום זכויות</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="G84" t="inlineStr"/>
     </row>
@@ -3039,17 +3039,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>חפציבה</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>טיפול בהארכת הסכם החלפת שטחים ושיחות מורן , ריכוז נכסים משותפים</t>
+          <t>רמ"י נצרת לענין הגשת בקשה להיתר בניה</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
@@ -3070,17 +3070,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>ש.ב.ה</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>נקסט עומר</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>טיוטת הסכם</t>
+          <t>שיחה זום + לינדה בענין העברת זכויות</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr"/>
     </row>
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>יואל רונן</t>
+          <t>כפיר פרקש</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>המעין</t>
+          <t>נתיבות</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>מכתב מענה מיכאל בן אימרה</t>
+          <t>שיחה רונן + כפיר</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3132,17 +3132,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>הארכת חכירה</t>
+          <t>משאבי שדה</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>שיחות עמרי ומפרט כספי</t>
+          <t>שיחת הכנה לשיחה בענין ביטול הסכם</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G88" t="inlineStr"/>
     </row>
@@ -3163,17 +3163,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>טיוטת הסכם תיקונים</t>
+          <t>רמ"י צפון לענין העברת הזכויות</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3182,29 +3182,29 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ליווי בנקאי זום ליעד</t>
+          <t>טיפול בהארכת הסכם החלפת שטחים ושיחות מורן , ריכוז נכסים משותפים</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3213,29 +3213,29 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>בוחבוט</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>מכירת מניות</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>דיונים מסמ"ק וסגירת שומות</t>
+          <t>טיוטת הסכם</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3244,29 +3244,29 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>יואל רונן</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>אלנבי 115</t>
+          <t>המעין</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>החלפת שטחים , שיחות מורן</t>
+          <t>מכתב מענה מיכאל בן אימרה</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3282,22 +3282,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>חלקה 114</t>
+          <t>הארכת חכירה</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>טיפול מול העיריה</t>
+          <t>שיחות עמרי ומפרט כספי</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3313,22 +3313,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
+          <t>12.11.2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>נייר חדרה</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>מכון טיהור</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>טיוטת מייל לעיריה ובדיקת מסמכים ישנים</t>
+          <t>טיוטת הסכם תיקונים</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr"/>
     </row>
@@ -3349,17 +3349,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>אבן גבירול</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>נספחים להסכם הקמה ותיקון טיוטות</t>
+          <t>ליווי בנקאי זום ליעד</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G95" t="inlineStr"/>
     </row>
@@ -3380,17 +3380,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>בוחבוט</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>מכירת מניות</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ודרישת תשלום</t>
+          <t>דיונים מסמ"ק וסגירת שומות</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G96" t="inlineStr"/>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ליווי בנקאי</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>נספח שינויים להסכם ליווי</t>
+          <t>החלפת שטחים , שיחות מורן</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3430,29 +3430,29 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>15.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>חלקה 114</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>תיקון מסמכים מול בועז</t>
+          <t>טיפול מול העיריה</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3461,29 +3461,29 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>כפיר פרקש</t>
+          <t>נייר חדרה</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>נתיבות</t>
+          <t>מכון טיהור</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ישיבת תיאום תמ"ל 2027 והכנה</t>
+          <t>טיוטת מייל לעיריה ובדיקת מסמכים ישנים</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3492,14 +3492,14 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>עין כרמל</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>זום</t>
+          <t>נספחים להסכם הקמה ותיקון טיוטות</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3523,29 +3523,29 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>משאבי שקה</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>זום בענין ביטול הסכם</t>
+          <t>בדיקת חוקי עזר ודרישת תשלום</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3554,29 +3554,29 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>ינושבסקי</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>תרו</t>
+          <t>ליווי בנקאי</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>שוטף</t>
+          <t>נספח שינויים להסכם ליווי</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3585,29 +3585,29 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>16.11.2025</t>
+          <t>15.11.2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>יעל רוטשילד</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>מבשרת ציון</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ריכוז סעיפים לצדדים ושיחה פנימית</t>
+          <t>תיקון מסמכים מול בועז</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G103" t="inlineStr"/>
     </row>
@@ -3628,17 +3628,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>שמעון הצדיק</t>
+          <t>כפיר פרקש</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>רוכשים</t>
+          <t>נתיבות</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>רישום בטאבו</t>
+          <t>ישיבת תיאום תמ"ל 2027 והכנה</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3647,14 +3647,14 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>זום</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3678,29 +3678,29 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>בית בלב</t>
+          <t>משאבי שקה</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>פגישה אצל ב"כ בית בלב</t>
+          <t>זום בענין ביטול הסכם</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3709,29 +3709,29 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>מגידו</t>
+          <t>תרו</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>רמ"י צפון לענין השלמת העברת זכויות</t>
+          <t>שוטף</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3740,29 +3740,29 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>בדיקות מול הועדה ובדיקת תצאות</t>
+          <t>ריכוז סעיפים לצדדים ושיחה פנימית</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3771,29 +3771,29 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>18.11.2025</t>
+          <t>16.11.2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>שמעון הצדיק</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>אפיקים</t>
+          <t>רוכשים</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>רמ"י צפון השלמת העברת זכויות</t>
+          <t>רישום בטאבו</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3802,29 +3802,29 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>עקיבא איגר</t>
+          <t>עמל 10</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>היטל השבחה</t>
+          <t>פינוי בינוי</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>דיון בועדת ערר  והכנה</t>
+          <t>טיוטת הסכם</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3833,29 +3833,29 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>היטלי פיתוח</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לקידום התיק</t>
+          <t>בדיקות משפטיות</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3864,29 +3864,29 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>מפעלי נשק</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>היטלי פיתוח</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>רמ"י ירושלים לקידום השגה משפטית</t>
+          <t>בדיקת חוקי עזר ובדיקות אחרות</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3895,29 +3895,29 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>אלנבי 115</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>דרישת מסמכים זבולון</t>
+          <t>שיחת זום ובדיקת מסמכים בראון</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3926,29 +3926,29 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>מכירת מטמנה</t>
+          <t>שדרות רוטשילד</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>שיחות עו"ד בענין הצורך בהודעת מיזוג</t>
+          <t>שיחה לעניין ג'ו בייקרי + בדיקות</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3964,22 +3964,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>19.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>אסתי וייץ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>הקניית בעלות</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ומסמכים</t>
+          <t>רמ"י לעניין שמאות</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3995,22 +3995,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>גוהר</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>אנילביץ</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>שיחת זום בענין ערעור מסמ"ק</t>
+          <t>בדיקות לעניין השגה משפטית ברמ"י</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4026,22 +4026,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>כפיר פרקש</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>מבוא ביתר</t>
+          <t>נתיבות</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>בדיקת היתרים קודמים</t>
+          <t>ישיבה פנימית</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4050,29 +4050,29 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>17.11.2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>העמל 10</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>פינוי בינוי</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ישיבה במשרד הסכם פינוי בינוי</t>
+          <t>ישיבה פנימית לעניין השגה משפטית</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4081,29 +4081,29 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>מתחם השעון</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>שותפים</t>
+          <t>עין כרמל</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ישיבת זום</t>
+          <t>שיחת זום</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4112,29 +4112,29 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>רונן כהן</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>מיכאל אנג'לו</t>
+          <t>בית בלב</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>תביעת ליקויי בניה</t>
+          <t>פגישה אצל ב"כ בית בלב</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4150,22 +4150,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ההשגה משפטית</t>
+          <t>מגידו</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>בדיקות לענין תשלומים קודמים ששולמו וטיוטת השגה משפטית</t>
+          <t>רמ"י צפון לענין השלמת העברת זכויות</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4174,19 +4174,19 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>נקודות לפגישת עו"ד עיריה</t>
+          <t>בדיקות מול הועדה ובדיקת תצאות</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4205,29 +4205,29 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>18.11.2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>מנורה</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>אלנבי</t>
+          <t>אפיקים</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>מכתב התראה ישראל קנדה ונתון</t>
+          <t>רמ"י צפון השלמת העברת זכויות</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4236,29 +4236,29 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>יואל רונן</t>
+          <t>עקיבא איגר</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ריינס</t>
+          <t>היטל השבחה</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>העברות להסכמי בנק מלווה</t>
+          <t>דיון בועדת ערר  והכנה</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4267,29 +4267,29 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>23.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>היטלים מטמנה</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>דרישת מסמכים זבולון</t>
+          <t>רמ"י ירושלים לקידום התיק</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4298,29 +4298,29 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>24.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>מפעלי נשק</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>קרית גת</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>זום פנימי + ישיבה בגב ים + תיקון טיוטא</t>
+          <t>רמ"י ירושלים לקידום השגה משפטית</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4329,29 +4329,29 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>24.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>הארכת חוזה</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>רמ"י מרכז עמרי לקידום העסקה + בדיקת חשבוניות ששולמו</t>
+          <t>דרישת מסמכים זבולון</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4360,29 +4360,29 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>24.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>גבעוני</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>היטלים</t>
+          <t>מכירת מטמנה</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>בדיקת חוקי עזר ובדיקות לענין היטלים</t>
+          <t>שיחות עו"ד בענין הצורך בהודעת מיזוג</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4391,29 +4391,29 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>24.11.2025</t>
+          <t>19.11.2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>אגרוטופ</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>העברת זכויות</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>מסמכים לרמ"י להעברת הזכויות</t>
+          <t>בדיקת חוקי עזר ומסמכים</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4429,22 +4429,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>20.11.2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גוהר</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>קנה מטאל</t>
+          <t>אנילביץ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>שיחת זום בענין ערעור מסמ"ק</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4453,29 +4453,29 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>20.11.2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>יאיר לוי</t>
+          <t>דלק</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>היטלים מטמנה</t>
+          <t>מבוא ביתר</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>שיחת זום יאיר</t>
+          <t>בדיקת היתרים קודמים</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4484,29 +4484,29 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>דלק</t>
+          <t>העמל 10</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>לוד צפון</t>
+          <t>פינוי בינוי</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>שיחת זום</t>
+          <t>ישיבה במשרד הסכם פינוי בינוי</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4515,29 +4515,29 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>יעל רוטשילד</t>
+          <t>מתחם השעון</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>שותפים</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>שיחת ועידה</t>
+          <t>ישיבת זום</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4553,22 +4553,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>אושירה</t>
+          <t>רונן כהן</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>שדרות רגר</t>
+          <t>מיכאל אנג'לו</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>הסכם פריסה</t>
+          <t>תביעת ליקויי בניה</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4577,29 +4577,29 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ג'י סיטי</t>
+          <t>ההשגה משפטית</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>גבי סכנין בענין ביטוחים</t>
+          <t>בדיקות לענין תשלומים קודמים ששולמו וטיוטת השגה משפטית</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4608,14 +4608,14 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ריכוז מסמכים ומייל לדניאל</t>
+          <t>נקודות לפגישת עו"ד עיריה</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4639,29 +4639,29 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>מנורה</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>אלנבי</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>טיפול במסמכים מול אלקטרה</t>
+          <t>מכתב התראה ישראל קנדה ונתון</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4670,29 +4670,29 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ינושבסקי</t>
+          <t>יואל רונן</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>אבן גבירול</t>
+          <t>ריינס</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>טיפול בהסכם ליווי</t>
+          <t>העברות להסכמי בנק מלווה</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4701,29 +4701,29 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>27.11.2025</t>
+          <t>23.11.2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>בר סימן טוב</t>
+          <t>יאיר לוי</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>הסכם שכירות</t>
+          <t>היטלים מטמנה</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>טיפול בהסכמים שכירות דירות שונות</t>
+          <t>דרישת מסמכים זבולון</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4732,14 +4732,14 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>29.11.2025</t>
+          <t>24.11.2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4749,12 +4749,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>קנה מטאל</t>
+          <t>גב ים</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>טיוטת הסכם</t>
+          <t>זום פנימי + ישיבה בגב ים + תיקון טיוטא</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4763,14 +4763,14 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>24.11.2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>השגה משפטית</t>
+          <t>הארכת חוזה</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>טיוטת השגה</t>
+          <t>רמ"י מרכז עמרי לקידום העסקה + בדיקת חשבוניות ששולמו</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4794,29 +4794,29 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>24.11.2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>אגירה</t>
+          <t>גבעוני</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>גב ים</t>
+          <t>היטלים</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>תיקון טיוטא ושיחות פנימיות</t>
+          <t>בדיקת חוקי עזר ובדיקות לענין היטלים</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4832,22 +4832,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>24.11.2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>קן דרור</t>
+          <t>אגרוטופ</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>מכירה חוף התכלת</t>
+          <t>העברת זכויות</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>תיקונים לטיוטת הסכם</t>
+          <t>מסמכים לרמ"י להעברת הזכויות</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4856,29 +4856,29 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>25.11.2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>משרד</t>
+          <t>אגירה</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>כללי</t>
+          <t>קנה מטל</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>טיפול בהעברת דירה לפרטי</t>
+          <t>תיקונים להסכם</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4887,40 +4887,939 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>25.11.2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>אודי שגב</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>היטלים</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>ישיבה במשרד עו"ד עיריה + הכנה</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>25.11.2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>בר סימן טוב</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>כללי</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>יישבה שלי</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>25.11.2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>גבעוני</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>הארכת חוזה</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>בדיקת שמאות בענין הוצאות פיתוח ובדיקת היתרים</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>הוצאות</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>25.11.2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ינושבסקי</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>אבן גבירול</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ישיבה פנימית מסמכי ליווי</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>25.11.2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>עין כרמל</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>תיקון טיוטא והכנה לפגישה</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>גבעוני</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>הארכת חוזה</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>רמ"י ת"א לענין השגה משפטית ונתונים גזברות</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>גב ים</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ישיבה בגב ים</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>עין כרמל</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ישיבת זום ותיקון טיוטא</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>מגל</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>הכנה פנימית לישיבה</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>אודי שגב</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>היטלים</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ריכוז מסמכים לעו"ד עיריה</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>גבעוני</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>הארכת חוזה</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>השגה משפטית</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>יעל רוטשילד</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>מבשרת ציון</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>הסכם + תיקון תקנון</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>מרטין רוכברגר</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>רישום זכויות</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>קריאת שמאות</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>יאיר לוי</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>היטלים</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>שיחות מועצה + מסמכים לעתירה</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>קנה מטאל</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>שיחת זום</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>יאיר לוי</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>היטלים מטמנה</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>שיחת זום יאיר</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>דלק</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>לוד צפון</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>שיחת זום</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>יעל רוטשילד</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>מבשרת ציון</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>שיחת ועידה</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>אושירה</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>שדרות רגר</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>הסכם פריסה</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ג'י סיטי</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>גבי סכנין בענין ביטוחים</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>גבעוני</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>היטלים</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ריכוז מסמכים ומייל לדניאל</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>גב ים</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>טיפול במסמכים מול אלקטרה</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ינושבסקי</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>אבן גבירול</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>טיפול בהסכם ליווי</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>27.11.2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>בר סימן טוב</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>הסכם שכירות</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>טיפול בהסכמים שכירות דירות שונות</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>29.11.2025</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>קנה מטאל</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>טיוטת הסכם</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>30.11.2025</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>גבעוני</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>השגה משפטית</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>טיוטת השגה</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>אגירה</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>גב ים</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>תיקון טיוטא ושיחות פנימיות</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>קן דרור</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>מכירה חוף התכלת</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>תיקונים לטיוטת הסכם</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>משרד</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>כללי</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>טיפול בהעברת דירה לפרטי</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>3</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>דלק</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>קרית חיים</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>מסמכים להעברת זכויות</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>גלית</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>גלית</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
         <v>1</v>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
